--- a/Таблица учета Оплат.xlsx
+++ b/Таблица учета Оплат.xlsx
@@ -569,7 +569,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>07.09.2023</t>
+          <t>02.10.2023</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>10.09.2023</t>
+          <t>02.10.2023</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
@@ -1138,15 +1138,47 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n"/>
-      <c r="D17" s="1" t="n"/>
-      <c r="E17" s="1" t="n"/>
-      <c r="F17" s="1" t="n"/>
-      <c r="G17" s="1" t="n"/>
-      <c r="H17" s="1" t="n"/>
-      <c r="I17" s="1" t="n"/>
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>08.09.2023</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>2840</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>МЕДИУС</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>7825334350</v>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>60825</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>30412,5</t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="I17" s="1" t="inlineStr">
+        <is>
+          <t>Не оплачен</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
